--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,18 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr1b</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H2">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56593802862181</v>
+        <v>1.879801666666667</v>
       </c>
       <c r="N2">
-        <v>1.56593802862181</v>
+        <v>5.639405</v>
       </c>
       <c r="O2">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969584</v>
       </c>
       <c r="P2">
-        <v>0.06586314881856592</v>
+        <v>0.07468080881969585</v>
       </c>
       <c r="Q2">
-        <v>0.3126046987195336</v>
+        <v>2.846422627490556</v>
       </c>
       <c r="R2">
-        <v>0.3126046987195336</v>
+        <v>25.617803647415</v>
       </c>
       <c r="S2">
-        <v>0.06586314881856592</v>
+        <v>0.0260071111833783</v>
       </c>
       <c r="T2">
-        <v>0.06586314881856592</v>
+        <v>0.0260071111833783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H3">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.7218735005327</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
-        <v>5.7218735005327</v>
+        <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.2406612515938902</v>
+        <v>0.2305528831469119</v>
       </c>
       <c r="P3">
-        <v>0.2406612515938902</v>
+        <v>0.230552883146912</v>
       </c>
       <c r="Q3">
-        <v>1.142244781755213</v>
+        <v>8.787410765822887</v>
       </c>
       <c r="R3">
-        <v>1.142244781755213</v>
+        <v>79.08669689240598</v>
       </c>
       <c r="S3">
-        <v>0.2406612515938902</v>
+        <v>0.08028855820411003</v>
       </c>
       <c r="T3">
-        <v>0.2406612515938902</v>
+        <v>0.08028855820411006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H4">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.84741506448671</v>
+        <v>4.498281</v>
       </c>
       <c r="N4">
-        <v>3.84741506448671</v>
+        <v>13.494843</v>
       </c>
       <c r="O4">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="P4">
-        <v>0.1618217747621224</v>
+        <v>0.1787078229236614</v>
       </c>
       <c r="Q4">
-        <v>0.7680508456272581</v>
+        <v>6.811361565561</v>
       </c>
       <c r="R4">
-        <v>0.7680508456272581</v>
+        <v>61.302254090049</v>
       </c>
       <c r="S4">
-        <v>0.1618217747621224</v>
+        <v>0.06223384954675792</v>
       </c>
       <c r="T4">
-        <v>0.1618217747621224</v>
+        <v>0.06223384954675792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H5">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.43378021540292</v>
+        <v>4.514094000000001</v>
       </c>
       <c r="N5">
-        <v>4.43378021540292</v>
+        <v>13.542282</v>
       </c>
       <c r="O5">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931761</v>
       </c>
       <c r="P5">
-        <v>0.1864842163727938</v>
+        <v>0.1793360421931762</v>
       </c>
       <c r="Q5">
-        <v>0.8851056064105564</v>
+        <v>6.835305836814001</v>
       </c>
       <c r="R5">
-        <v>0.8851056064105564</v>
+        <v>61.51775253132601</v>
       </c>
       <c r="S5">
-        <v>0.1864842163727938</v>
+        <v>0.06245262286547299</v>
       </c>
       <c r="T5">
-        <v>0.1864842163727938</v>
+        <v>0.06245262286547301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.199627758573983</v>
+        <v>1.514214333333333</v>
       </c>
       <c r="H6">
-        <v>0.199627758573983</v>
+        <v>4.542643</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.3482435661103787</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.36802434158151</v>
+        <v>6.434522</v>
       </c>
       <c r="N6">
-        <v>6.36802434158151</v>
+        <v>19.303566</v>
       </c>
       <c r="O6">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="P6">
-        <v>0.2678382715176572</v>
+        <v>0.2556308550253761</v>
       </c>
       <c r="Q6">
-        <v>1.271234425854481</v>
+        <v>9.743245440548668</v>
       </c>
       <c r="R6">
-        <v>1.271234425854481</v>
+        <v>87.689208964938</v>
       </c>
       <c r="S6">
-        <v>0.2678382715176572</v>
+        <v>0.08902180056188218</v>
       </c>
       <c r="T6">
-        <v>0.2678382715176572</v>
+        <v>0.08902180056188218</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.514214333333333</v>
+      </c>
+      <c r="H7">
+        <v>4.542643</v>
+      </c>
+      <c r="I7">
+        <v>0.3482435661103787</v>
+      </c>
+      <c r="J7">
+        <v>0.3482435661103787</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N7">
+        <v>6.123505</v>
+      </c>
+      <c r="O7">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P7">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q7">
+        <v>3.090766347079444</v>
+      </c>
+      <c r="R7">
+        <v>27.816897123715</v>
+      </c>
+      <c r="S7">
+        <v>0.02823962374877721</v>
+      </c>
+      <c r="T7">
+        <v>0.02823962374877721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.340208</v>
+      </c>
+      <c r="I8">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J8">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.639405</v>
+      </c>
+      <c r="O8">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P8">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q8">
+        <v>0.2131745218044444</v>
+      </c>
+      <c r="R8">
+        <v>1.91857069624</v>
+      </c>
+      <c r="S8">
+        <v>0.001947726748827668</v>
+      </c>
+      <c r="T8">
+        <v>0.001947726748827668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.340208</v>
+      </c>
+      <c r="I9">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J9">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N9">
+        <v>17.409842</v>
+      </c>
+      <c r="O9">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P9">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q9">
+        <v>0.658107503015111</v>
+      </c>
+      <c r="R9">
+        <v>5.922967527136</v>
+      </c>
+      <c r="S9">
+        <v>0.006012977425147402</v>
+      </c>
+      <c r="T9">
+        <v>0.006012977425147403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.340208</v>
+      </c>
+      <c r="I10">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J10">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.498281</v>
+      </c>
+      <c r="N10">
+        <v>13.494843</v>
+      </c>
+      <c r="O10">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P10">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q10">
+        <v>0.5101170608159999</v>
+      </c>
+      <c r="R10">
+        <v>4.591053547344</v>
+      </c>
+      <c r="S10">
+        <v>0.004660822672308482</v>
+      </c>
+      <c r="T10">
+        <v>0.004660822672308483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.340208</v>
+      </c>
+      <c r="I11">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J11">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N11">
+        <v>13.542282</v>
+      </c>
+      <c r="O11">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P11">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q11">
+        <v>0.5119102971840001</v>
+      </c>
+      <c r="R11">
+        <v>4.607192674656001</v>
+      </c>
+      <c r="S11">
+        <v>0.004677207062015843</v>
+      </c>
+      <c r="T11">
+        <v>0.004677207062015844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.340208</v>
+      </c>
+      <c r="I12">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J12">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.434522</v>
+      </c>
+      <c r="N12">
+        <v>19.303566</v>
+      </c>
+      <c r="O12">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P12">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q12">
+        <v>0.7296919535253333</v>
+      </c>
+      <c r="R12">
+        <v>6.567227581728</v>
+      </c>
+      <c r="S12">
+        <v>0.0066670281432102</v>
+      </c>
+      <c r="T12">
+        <v>0.0066670281432102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1134026666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.340208</v>
+      </c>
+      <c r="I13">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="J13">
+        <v>0.02608068631835689</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.123505</v>
+      </c>
+      <c r="O13">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P13">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q13">
+        <v>0.2314739321155555</v>
+      </c>
+      <c r="R13">
+        <v>2.08326538904</v>
+      </c>
+      <c r="S13">
+        <v>0.002114924266847295</v>
+      </c>
+      <c r="T13">
+        <v>0.002114924266847295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H14">
+        <v>8.161591</v>
+      </c>
+      <c r="I14">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J14">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.879801666666667</v>
+      </c>
+      <c r="N14">
+        <v>5.639405</v>
+      </c>
+      <c r="O14">
+        <v>0.07468080881969584</v>
+      </c>
+      <c r="P14">
+        <v>0.07468080881969585</v>
+      </c>
+      <c r="Q14">
+        <v>5.114057454817221</v>
+      </c>
+      <c r="R14">
+        <v>46.026517093355</v>
+      </c>
+      <c r="S14">
+        <v>0.04672597088748987</v>
+      </c>
+      <c r="T14">
+        <v>0.04672597088748988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H15">
+        <v>8.161591</v>
+      </c>
+      <c r="I15">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J15">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.803280666666666</v>
+      </c>
+      <c r="N15">
+        <v>17.409842</v>
+      </c>
+      <c r="O15">
+        <v>0.2305528831469119</v>
+      </c>
+      <c r="P15">
+        <v>0.230552883146912</v>
+      </c>
+      <c r="Q15">
+        <v>15.78800108651355</v>
+      </c>
+      <c r="R15">
+        <v>142.092009778622</v>
+      </c>
+      <c r="S15">
+        <v>0.1442513475176545</v>
+      </c>
+      <c r="T15">
+        <v>0.1442513475176545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H16">
+        <v>8.161591</v>
+      </c>
+      <c r="I16">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J16">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.498281</v>
+      </c>
+      <c r="N16">
+        <v>13.494843</v>
+      </c>
+      <c r="O16">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="P16">
+        <v>0.1787078229236614</v>
+      </c>
+      <c r="Q16">
+        <v>12.237709908357</v>
+      </c>
+      <c r="R16">
+        <v>110.139389175213</v>
+      </c>
+      <c r="S16">
+        <v>0.111813150704595</v>
+      </c>
+      <c r="T16">
+        <v>0.111813150704595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H17">
+        <v>8.161591</v>
+      </c>
+      <c r="I17">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J17">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.514094000000001</v>
+      </c>
+      <c r="N17">
+        <v>13.542282</v>
+      </c>
+      <c r="O17">
+        <v>0.1793360421931761</v>
+      </c>
+      <c r="P17">
+        <v>0.1793360421931762</v>
+      </c>
+      <c r="Q17">
+        <v>12.280729654518</v>
+      </c>
+      <c r="R17">
+        <v>110.526566890662</v>
+      </c>
+      <c r="S17">
+        <v>0.1122062122656873</v>
+      </c>
+      <c r="T17">
+        <v>0.1122062122656873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.199627758573983</v>
-      </c>
-      <c r="H7">
-        <v>0.199627758573983</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.83860145594043</v>
-      </c>
-      <c r="N7">
-        <v>1.83860145594043</v>
-      </c>
-      <c r="O7">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="P7">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="Q7">
-        <v>0.3670358875602498</v>
-      </c>
-      <c r="R7">
-        <v>0.3670358875602498</v>
-      </c>
-      <c r="S7">
-        <v>0.07733133693497039</v>
-      </c>
-      <c r="T7">
-        <v>0.07733133693497039</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H18">
+        <v>8.161591</v>
+      </c>
+      <c r="I18">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J18">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.434522</v>
+      </c>
+      <c r="N18">
+        <v>19.303566</v>
+      </c>
+      <c r="O18">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="P18">
+        <v>0.2556308550253761</v>
+      </c>
+      <c r="Q18">
+        <v>17.50531228150066</v>
+      </c>
+      <c r="R18">
+        <v>157.547810533506</v>
+      </c>
+      <c r="S18">
+        <v>0.1599420263202837</v>
+      </c>
+      <c r="T18">
+        <v>0.1599420263202837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>2.720530333333333</v>
+      </c>
+      <c r="H19">
+        <v>8.161591</v>
+      </c>
+      <c r="I19">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="J19">
+        <v>0.6256757475712644</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.041168333333333</v>
+      </c>
+      <c r="N19">
+        <v>6.123505</v>
+      </c>
+      <c r="O19">
+        <v>0.08109158789117851</v>
+      </c>
+      <c r="P19">
+        <v>0.08109158789117853</v>
+      </c>
+      <c r="Q19">
+        <v>5.553060366272777</v>
+      </c>
+      <c r="R19">
+        <v>49.977543296455</v>
+      </c>
+      <c r="S19">
+        <v>0.05073703987555401</v>
+      </c>
+      <c r="T19">
+        <v>0.05073703987555402</v>
       </c>
     </row>
   </sheetData>
